--- a/data/trans_camb/P34A_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P34A_R-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-28,38; -19,5</t>
+          <t>-28,1; -19,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 2,25</t>
+          <t>-7,44; 2,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 6,11</t>
+          <t>-4,58; 6,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-19,7; -11,87</t>
+          <t>-19,49; -11,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 8,33</t>
+          <t>0,32; 8,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,13; 12,95</t>
+          <t>5,43; 12,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-22,43; -16,62</t>
+          <t>-21,77; -16,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 4,43</t>
+          <t>-1,85; 4,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,68; 8,98</t>
+          <t>2,9; 9,11</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-54,59; -40,91</t>
+          <t>-54,29; -40,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,9; 4,56</t>
+          <t>-14,45; 4,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 12,92</t>
+          <t>-8,87; 12,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-36,27; -23,64</t>
+          <t>-36,32; -23,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 16,65</t>
+          <t>0,61; 17,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,59; 25,97</t>
+          <t>10,23; 25,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-42,39; -33,03</t>
+          <t>-41,64; -32,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 8,87</t>
+          <t>-3,61; 9,47</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,02; 18,0</t>
+          <t>5,49; 18,52</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-20,59; -14,35</t>
+          <t>-20,49; -14,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,65; -5,22</t>
+          <t>-11,64; -4,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,0; -5,97</t>
+          <t>-13,58; -6,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-16,62; -9,9</t>
+          <t>-16,59; -9,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,89; -0,42</t>
+          <t>-7,03; -0,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,17; -4,81</t>
+          <t>-14,69; -4,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-17,91; -13,07</t>
+          <t>-17,92; -13,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,32; -3,77</t>
+          <t>-8,56; -3,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-12,36; -6,23</t>
+          <t>-12,03; -6,33</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-48,76; -37,19</t>
+          <t>-48,87; -37,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-27,52; -13,67</t>
+          <t>-27,58; -12,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-30,8; -15,5</t>
+          <t>-32,01; -15,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-36,51; -23,59</t>
+          <t>-36,65; -23,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-15,25; -1,0</t>
+          <t>-15,61; -0,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-31,75; -11,35</t>
+          <t>-33,1; -11,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-41,63; -32,46</t>
+          <t>-41,55; -32,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-19,38; -9,39</t>
+          <t>-19,88; -8,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-29,18; -15,25</t>
+          <t>-28,35; -15,64</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-18,55; -8,51</t>
+          <t>-18,66; -8,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,15; 1,12</t>
+          <t>-9,34; 1,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 2,16</t>
+          <t>-8,75; 1,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-26,43; -14,63</t>
+          <t>-26,69; -15,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-16,49; -4,62</t>
+          <t>-17,2; -4,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-17,97; -7,45</t>
+          <t>-19,28; -8,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-20,35; -12,79</t>
+          <t>-20,46; -12,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-11,08; -2,69</t>
+          <t>-10,95; -2,88</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-11,33; -3,41</t>
+          <t>-11,16; -3,6</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-63,14; -33,5</t>
+          <t>-62,65; -32,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-31,1; 5,08</t>
+          <t>-31,47; 5,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-30,6; 8,9</t>
+          <t>-29,26; 8,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-63,67; -41,23</t>
+          <t>-63,8; -41,99</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-39,19; -13,34</t>
+          <t>-40,79; -12,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-43,0; -21,6</t>
+          <t>-44,89; -22,57</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-59,2; -41,27</t>
+          <t>-59,78; -40,85</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-31,61; -8,79</t>
+          <t>-31,75; -9,56</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-32,56; -11,12</t>
+          <t>-32,11; -11,51</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-20,84; -16,26</t>
+          <t>-20,97; -16,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,69; -4,91</t>
+          <t>-9,46; -4,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-11,27; -5,77</t>
+          <t>-11,3; -6,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-17,58; -12,94</t>
+          <t>-17,69; -12,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,78; -0,91</t>
+          <t>-5,87; -1,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,38; -4,37</t>
+          <t>-11,27; -4,6</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-18,57; -15,35</t>
+          <t>-18,45; -15,15</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,13; -3,75</t>
+          <t>-7,12; -3,5</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-10,07; -5,76</t>
+          <t>-9,61; -5,67</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-49,5; -40,55</t>
+          <t>-49,69; -40,78</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-23,01; -12,34</t>
+          <t>-22,46; -12,09</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-26,76; -14,66</t>
+          <t>-26,88; -14,98</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-37,28; -28,81</t>
+          <t>-37,21; -28,64</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-12,2; -2,02</t>
+          <t>-12,38; -2,84</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-24,4; -9,9</t>
+          <t>-24,17; -10,31</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-41,88; -35,84</t>
+          <t>-41,59; -35,41</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-16,03; -8,69</t>
+          <t>-15,99; -8,25</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-22,64; -13,5</t>
+          <t>-21,79; -13,28</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P34A_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P34A_R-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-28,1; -19,58</t>
+          <t>-28,0; -19,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 2,08</t>
+          <t>-7,22; 2,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 6,11</t>
+          <t>-4,4; 6,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-19,49; -11,63</t>
+          <t>-19,39; -12,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,32; 8,65</t>
+          <t>0,43; 8,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,43; 12,89</t>
+          <t>4,87; 12,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-21,77; -16,14</t>
+          <t>-22,08; -16,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 4,72</t>
+          <t>-2,2; 4,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,9; 9,11</t>
+          <t>2,53; 9,03</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-54,29; -40,74</t>
+          <t>-55,03; -41,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,45; 4,33</t>
+          <t>-14,14; 4,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 12,79</t>
+          <t>-8,46; 12,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-36,32; -23,45</t>
+          <t>-36,36; -23,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,61; 17,17</t>
+          <t>0,78; 17,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,23; 25,82</t>
+          <t>8,85; 25,88</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-41,64; -32,96</t>
+          <t>-41,92; -32,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 9,47</t>
+          <t>-4,19; 8,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,49; 18,52</t>
+          <t>4,77; 17,9</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-20,49; -14,36</t>
+          <t>-20,72; -14,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,64; -4,88</t>
+          <t>-11,66; -5,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,58; -6,34</t>
+          <t>-13,51; -6,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-16,59; -9,68</t>
+          <t>-16,69; -9,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,03; -0,14</t>
+          <t>-6,77; -0,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,69; -4,71</t>
+          <t>-13,78; -4,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-17,92; -13,24</t>
+          <t>-17,79; -13,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,56; -3,61</t>
+          <t>-8,5; -3,77</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-12,03; -6,33</t>
+          <t>-12,09; -6,28</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-48,87; -37,09</t>
+          <t>-49,04; -37,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-27,58; -12,77</t>
+          <t>-27,95; -14,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-32,01; -15,94</t>
+          <t>-32,51; -16,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-36,65; -23,29</t>
+          <t>-37,09; -23,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-15,61; -0,33</t>
+          <t>-14,95; -1,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-33,1; -11,34</t>
+          <t>-30,81; -11,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-41,55; -32,56</t>
+          <t>-41,59; -32,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-19,88; -8,99</t>
+          <t>-19,76; -9,32</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-28,35; -15,64</t>
+          <t>-28,02; -15,43</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-18,66; -8,0</t>
+          <t>-18,32; -7,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 1,27</t>
+          <t>-9,43; 1,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 1,95</t>
+          <t>-8,95; 1,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-26,69; -15,12</t>
+          <t>-26,69; -15,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,2; -4,37</t>
+          <t>-16,65; -4,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-19,28; -8,21</t>
+          <t>-18,06; -7,52</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-20,46; -12,34</t>
+          <t>-20,46; -12,79</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,95; -2,88</t>
+          <t>-11,04; -2,9</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-11,16; -3,6</t>
+          <t>-11,49; -3,85</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-62,65; -32,92</t>
+          <t>-62,14; -31,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-31,47; 5,28</t>
+          <t>-31,34; 6,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-29,26; 8,69</t>
+          <t>-30,34; 7,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-63,8; -41,99</t>
+          <t>-63,56; -41,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-40,79; -12,21</t>
+          <t>-39,31; -11,68</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-44,89; -22,57</t>
+          <t>-43,51; -21,66</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-59,78; -40,85</t>
+          <t>-59,54; -41,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-31,75; -9,56</t>
+          <t>-31,44; -9,4</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-32,11; -11,51</t>
+          <t>-32,65; -12,69</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-20,97; -16,33</t>
+          <t>-20,68; -16,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,46; -4,82</t>
+          <t>-9,54; -4,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-11,3; -6,05</t>
+          <t>-11,4; -6,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-17,69; -12,93</t>
+          <t>-17,46; -12,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,87; -1,3</t>
+          <t>-5,85; -1,12</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,27; -4,6</t>
+          <t>-11,26; -4,35</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-18,45; -15,15</t>
+          <t>-18,53; -15,41</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,12; -3,5</t>
+          <t>-6,88; -3,58</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-9,61; -5,67</t>
+          <t>-9,74; -5,77</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-49,69; -40,78</t>
+          <t>-49,2; -40,8</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-22,46; -12,09</t>
+          <t>-22,54; -11,86</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-26,88; -14,98</t>
+          <t>-27,06; -15,48</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-37,21; -28,64</t>
+          <t>-36,92; -28,44</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-12,38; -2,84</t>
+          <t>-12,22; -2,27</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-24,17; -10,31</t>
+          <t>-24,18; -9,89</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-41,59; -35,41</t>
+          <t>-41,64; -35,71</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-15,99; -8,25</t>
+          <t>-15,47; -8,45</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-21,79; -13,28</t>
+          <t>-22,09; -13,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P34A_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P34A_R-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-28,0; -19,52</t>
+          <t>-28,38; -19,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 2,3</t>
+          <t>-7,78; 2,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 6,07</t>
+          <t>-3,67; 6,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-19,39; -12,08</t>
+          <t>-19,7; -11,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,43; 8,87</t>
+          <t>-0,44; 8,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,87; 12,97</t>
+          <t>5,13; 12,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-22,08; -16,19</t>
+          <t>-22,43; -16,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 4,41</t>
+          <t>-1,88; 4,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,53; 9,03</t>
+          <t>2,68; 8,98</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-55,03; -41,08</t>
+          <t>-54,59; -40,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,14; 4,81</t>
+          <t>-14,9; 4,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 12,77</t>
+          <t>-7,1; 12,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-36,36; -23,7</t>
+          <t>-36,27; -23,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,78; 17,68</t>
+          <t>-0,81; 16,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,85; 25,88</t>
+          <t>9,59; 25,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-41,92; -32,57</t>
+          <t>-42,39; -33,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 8,82</t>
+          <t>-3,6; 8,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,77; 17,9</t>
+          <t>5,02; 18,0</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-20,72; -14,67</t>
+          <t>-20,59; -14,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,66; -5,34</t>
+          <t>-11,65; -5,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,51; -6,45</t>
+          <t>-13,0; -5,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-16,69; -9,94</t>
+          <t>-16,62; -9,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,77; -0,61</t>
+          <t>-6,89; -0,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,78; -4,51</t>
+          <t>-14,17; -4,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-17,79; -13,33</t>
+          <t>-17,91; -13,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,5; -3,77</t>
+          <t>-8,32; -3,77</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-12,09; -6,28</t>
+          <t>-12,36; -6,23</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-49,04; -37,34</t>
+          <t>-48,76; -37,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-27,95; -14,06</t>
+          <t>-27,52; -13,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-32,51; -16,65</t>
+          <t>-30,8; -15,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-37,09; -23,35</t>
+          <t>-36,51; -23,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-14,95; -1,46</t>
+          <t>-15,25; -1,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-30,81; -11,0</t>
+          <t>-31,75; -11,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-41,59; -32,82</t>
+          <t>-41,63; -32,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-19,76; -9,32</t>
+          <t>-19,38; -9,39</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-28,02; -15,43</t>
+          <t>-29,18; -15,25</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-18,32; -7,83</t>
+          <t>-18,55; -8,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,43; 1,43</t>
+          <t>-9,15; 1,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 1,64</t>
+          <t>-9,08; 2,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-26,69; -15,04</t>
+          <t>-26,43; -14,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-16,65; -4,26</t>
+          <t>-16,49; -4,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-18,06; -7,52</t>
+          <t>-17,97; -7,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-20,46; -12,79</t>
+          <t>-20,35; -12,79</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-11,04; -2,9</t>
+          <t>-11,08; -2,69</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-11,49; -3,85</t>
+          <t>-11,33; -3,41</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-62,14; -31,09</t>
+          <t>-63,14; -33,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-31,34; 6,09</t>
+          <t>-31,1; 5,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-30,34; 7,05</t>
+          <t>-30,6; 8,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-63,56; -41,43</t>
+          <t>-63,67; -41,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-39,31; -11,68</t>
+          <t>-39,19; -13,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-43,51; -21,66</t>
+          <t>-43,0; -21,6</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-59,54; -41,79</t>
+          <t>-59,2; -41,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-31,44; -9,4</t>
+          <t>-31,61; -8,79</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-32,65; -12,69</t>
+          <t>-32,56; -11,12</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-20,68; -16,28</t>
+          <t>-20,84; -16,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,54; -4,75</t>
+          <t>-9,69; -4,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-11,4; -6,17</t>
+          <t>-11,27; -5,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-17,46; -12,82</t>
+          <t>-17,58; -12,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,85; -1,12</t>
+          <t>-5,78; -0,91</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,26; -4,35</t>
+          <t>-11,38; -4,37</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-18,53; -15,41</t>
+          <t>-18,57; -15,35</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,88; -3,58</t>
+          <t>-7,13; -3,75</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-9,74; -5,77</t>
+          <t>-10,07; -5,76</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-49,2; -40,8</t>
+          <t>-49,5; -40,55</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-22,54; -11,86</t>
+          <t>-23,01; -12,34</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-27,06; -15,48</t>
+          <t>-26,76; -14,66</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-36,92; -28,44</t>
+          <t>-37,28; -28,81</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-12,22; -2,27</t>
+          <t>-12,2; -2,02</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-24,18; -9,89</t>
+          <t>-24,4; -9,9</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-41,64; -35,71</t>
+          <t>-41,88; -35,84</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-15,47; -8,45</t>
+          <t>-16,03; -8,69</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-22,09; -13,46</t>
+          <t>-22,64; -13,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P34A_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P34A_R-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,9</t>
+          <t>8,7</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,97</t>
+          <t>5,93</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 6,11</t>
+          <t>-3,25; 6,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,13; 12,95</t>
+          <t>4,95; 12,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,68; 8,98</t>
+          <t>2,69; 8,88</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,1%</t>
+          <t>16,73%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>11,72%</t>
+          <t>11,63%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 12,92</t>
+          <t>-6,32; 13,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,59; 25,97</t>
+          <t>9,12; 25,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,02; 18,0</t>
+          <t>5,15; 17,88</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-9,69</t>
+          <t>-12,17</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-8,3</t>
+          <t>-9,6</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-8,9</t>
+          <t>-10,87</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,0; -5,97</t>
+          <t>-20,24; -7,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,17; -4,81</t>
+          <t>-18,93; -4,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-12,36; -6,23</t>
+          <t>-17,61; -6,97</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-23,91%</t>
+          <t>-30,03%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-19,1%</t>
+          <t>-22,11%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-21,22%</t>
+          <t>-25,92%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-30,8; -15,5</t>
+          <t>-48,38; -18,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-31,75; -11,35</t>
+          <t>-43,0; -9,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-29,18; -15,25</t>
+          <t>-41,3; -16,7</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,45</t>
+          <t>-3,47</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-12,94</t>
+          <t>-12,73</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-7,68</t>
+          <t>-7,6</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 2,16</t>
+          <t>-9,15; 2,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-17,97; -7,45</t>
+          <t>-17,81; -7,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-11,33; -3,41</t>
+          <t>-11,28; -3,39</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-12,82%</t>
+          <t>-12,91%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-33,27%</t>
+          <t>-32,73%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-23,68%</t>
+          <t>-23,47%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-30,6; 8,9</t>
+          <t>-31,07; 8,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-43,0; -21,6</t>
+          <t>-42,78; -21,1</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-32,56; -11,12</t>
+          <t>-32,8; -11,81</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-8,52</t>
+          <t>-10,24</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-7,09</t>
+          <t>-8,17</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-7,65</t>
+          <t>-9,13</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-11,27; -5,77</t>
+          <t>-17,51; -6,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,38; -4,37</t>
+          <t>-16,26; -4,59</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-10,07; -5,76</t>
+          <t>-13,69; -6,16</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-20,75%</t>
+          <t>-24,93%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-15,37%</t>
+          <t>-17,71%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-17,53%</t>
+          <t>-20,93%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-26,76; -14,66</t>
+          <t>-41,9; -16,87</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-24,4; -9,9</t>
+          <t>-34,43; -9,91</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-22,64; -13,5</t>
+          <t>-31,41; -14,31</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P34A_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P34A_R-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-28,38; -19,5</t>
+          <t>-27,9; -19,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 2,25</t>
+          <t>-7,22; 2,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 6,69</t>
+          <t>-3,06; 7,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-19,7; -11,87</t>
+          <t>-19,67; -11,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 8,33</t>
+          <t>0,48; 8,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,95; 12,74</t>
+          <t>4,92; 12,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-22,43; -16,62</t>
+          <t>-21,53; -16,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 4,43</t>
+          <t>-1,94; 4,52</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,69; 8,88</t>
+          <t>2,92; 9,29</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-54,59; -40,91</t>
+          <t>-54,08; -40,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,9; 4,56</t>
+          <t>-14,16; 5,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 13,93</t>
+          <t>-6,12; 15,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-36,27; -23,64</t>
+          <t>-36,43; -23,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 16,65</t>
+          <t>0,81; 17,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,12; 25,43</t>
+          <t>9,07; 25,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-42,39; -33,03</t>
+          <t>-41,29; -32,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 8,87</t>
+          <t>-3,72; 9,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,15; 17,88</t>
+          <t>5,53; 18,78</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-20,59; -14,35</t>
+          <t>-20,81; -14,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,65; -5,22</t>
+          <t>-12,25; -5,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-20,24; -7,27</t>
+          <t>-22,07; -7,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-16,62; -9,9</t>
+          <t>-16,65; -10,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,89; -0,42</t>
+          <t>-6,88; -0,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,93; -4,34</t>
+          <t>-19,6; -4,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-17,91; -13,07</t>
+          <t>-17,77; -13,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,32; -3,77</t>
+          <t>-8,35; -3,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-17,61; -6,97</t>
+          <t>-17,01; -7,16</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-48,76; -37,19</t>
+          <t>-49,34; -37,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-27,52; -13,67</t>
+          <t>-28,66; -14,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-48,38; -18,3</t>
+          <t>-53,36; -18,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-36,51; -23,59</t>
+          <t>-36,95; -23,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-15,25; -1,0</t>
+          <t>-15,21; -0,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-43,0; -9,96</t>
+          <t>-43,81; -9,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-41,63; -32,46</t>
+          <t>-41,34; -32,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-19,38; -9,39</t>
+          <t>-19,27; -9,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-41,3; -16,7</t>
+          <t>-39,6; -17,17</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-18,55; -8,51</t>
+          <t>-18,43; -7,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,15; 1,12</t>
+          <t>-9,09; 0,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,15; 2,32</t>
+          <t>-8,68; 1,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-26,43; -14,63</t>
+          <t>-26,91; -14,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-16,49; -4,62</t>
+          <t>-16,76; -4,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-17,81; -7,24</t>
+          <t>-18,61; -7,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-20,35; -12,79</t>
+          <t>-20,46; -12,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-11,08; -2,69</t>
+          <t>-10,93; -2,38</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-11,28; -3,39</t>
+          <t>-11,45; -3,6</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-63,14; -33,5</t>
+          <t>-61,84; -32,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-31,1; 5,08</t>
+          <t>-30,77; 3,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-31,07; 8,86</t>
+          <t>-29,59; 7,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-63,67; -41,23</t>
+          <t>-63,56; -40,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-39,19; -13,34</t>
+          <t>-39,23; -12,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-42,78; -21,1</t>
+          <t>-43,79; -21,68</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-59,2; -41,27</t>
+          <t>-58,94; -40,09</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-31,61; -8,79</t>
+          <t>-31,47; -8,16</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-32,8; -11,81</t>
+          <t>-33,15; -12,41</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-20,84; -16,26</t>
+          <t>-21,13; -16,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,69; -4,91</t>
+          <t>-9,65; -4,81</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-17,51; -6,73</t>
+          <t>-17,41; -6,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-17,58; -12,94</t>
+          <t>-17,56; -12,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,78; -0,91</t>
+          <t>-5,8; -1,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-16,26; -4,59</t>
+          <t>-14,39; -4,43</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-18,57; -15,35</t>
+          <t>-18,59; -15,15</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,13; -3,75</t>
+          <t>-6,89; -3,57</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-13,69; -6,16</t>
+          <t>-14,23; -6,41</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-49,5; -40,55</t>
+          <t>-49,52; -40,66</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-23,01; -12,34</t>
+          <t>-22,75; -11,98</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-41,9; -16,87</t>
+          <t>-42,32; -17,26</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-37,28; -28,81</t>
+          <t>-37,19; -28,47</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-12,2; -2,02</t>
+          <t>-12,38; -2,24</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-34,43; -9,91</t>
+          <t>-30,65; -9,83</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-41,88; -35,84</t>
+          <t>-41,73; -35,45</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-16,03; -8,69</t>
+          <t>-15,53; -8,43</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-31,41; -14,31</t>
+          <t>-32,12; -14,9</t>
         </is>
       </c>
     </row>
